--- a/UI.xlsx
+++ b/UI.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="UI" sheetId="1" r:id="rId1"/>
+    <sheet name="Screens" sheetId="4" r:id="rId2"/>
+    <sheet name="Database details" sheetId="2" r:id="rId3"/>
+    <sheet name="Technologies" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="89">
   <si>
     <t>Register User</t>
   </si>
@@ -150,6 +153,153 @@
   </si>
   <si>
     <t>Date -M</t>
+  </si>
+  <si>
+    <t>Service Type</t>
+  </si>
+  <si>
+    <t>Passsowrd</t>
+  </si>
+  <si>
+    <t>Service_Provider_Id</t>
+  </si>
+  <si>
+    <t>Service_provider_Id</t>
+  </si>
+  <si>
+    <t>User _details</t>
+  </si>
+  <si>
+    <t>Service_Provider_details</t>
+  </si>
+  <si>
+    <t>Book_details</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Service_Status</t>
+  </si>
+  <si>
+    <t>User_feedback_id</t>
+  </si>
+  <si>
+    <t>Provider_feedback_id</t>
+  </si>
+  <si>
+    <t>Feedback_msg</t>
+  </si>
+  <si>
+    <t>Book_id</t>
+  </si>
+  <si>
+    <t>Ph no/User_id</t>
+  </si>
+  <si>
+    <t>Additional _Info_user</t>
+  </si>
+  <si>
+    <t>Ph_No</t>
+  </si>
+  <si>
+    <t>Ph_type</t>
+  </si>
+  <si>
+    <t>Cancel_details</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Android UI</t>
+  </si>
+  <si>
+    <t>IOS</t>
+  </si>
+  <si>
+    <t>Web App</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>FE Validations</t>
+  </si>
+  <si>
+    <t>Scripting language</t>
+  </si>
+  <si>
+    <t>Disable 
+ /Enable button Depends on
+ mandatory filled status</t>
+  </si>
+  <si>
+    <t>Invocation</t>
+  </si>
+  <si>
+    <t>Rest/Json</t>
+  </si>
+  <si>
+    <t>Allow any type UI 
+to access Integration Layer</t>
+  </si>
+  <si>
+    <t>Back End</t>
+  </si>
+  <si>
+    <t>mango DB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Security </t>
+  </si>
+  <si>
+    <t>Later will decide
+ on other if required</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>No Validation after user click 
+submits/Even sceheme</t>
+  </si>
+  <si>
+    <t>Home Screen</t>
+  </si>
+  <si>
+    <t>25% -Bottom Layer</t>
+  </si>
+  <si>
+    <t>5) Setting -Help,Feedback -Only for 1st release
+,Alert,Policy,Terms of use</t>
+  </si>
+  <si>
+    <t>4) Message - Not for current release</t>
+  </si>
+  <si>
+    <t>2) Sign UP -Register company/User</t>
+  </si>
+  <si>
+    <t>3) Sign In - login page</t>
+  </si>
+  <si>
+    <t>1) Top layer Book -75 % -Without Register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Totally - </t>
+  </si>
+  <si>
+    <t>wait _time</t>
+  </si>
+  <si>
+    <t>Service_approx_time</t>
   </si>
 </sst>
 </file>
@@ -187,7 +337,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -210,17 +360,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -748,6 +936,11 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
@@ -767,4 +960,334 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="10"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>